--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E87A62-6BE3-422A-88A0-FFB19AFBF198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A12026D-F74D-4A34-9714-1F8A8F96D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,23 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
-  <si>
-    <t>Expected_File_names</t>
-  </si>
-  <si>
-    <t>Files_to_upload</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Population_name</t>
-  </si>
-  <si>
-    <t>File_with_ValidData.xlsx</t>
-  </si>
-  <si>
     <t>scenario1</t>
   </si>
   <si>
@@ -73,21 +61,9 @@
     <t>Clinical_radio_button</t>
   </si>
   <si>
-    <t>LIVEHTA Automation - Test_NonOncology_Automation_2</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\LIVEHTA_2301\File_with_ValidData.xlsx</t>
-  </si>
-  <si>
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>CompleteExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_2-Clinical-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_2-Clinical-2023_</t>
-  </si>
-  <si>
     <t>ExpectedPrismaCount</t>
   </si>
   <si>
@@ -155,6 +131,12 @@
   </si>
   <si>
     <t>LIVEHTA Automation - Test_NonOncology_Automation_3_radio_button</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -481,204 +463,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3">
+      <c r="J7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
     </row>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A12026D-F74D-4A34-9714-1F8A8F96D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2189C4-B941-4DBB-9BA9-1322962BB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>CompleteExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>scenario2</t>
   </si>
 </sst>
 </file>
@@ -463,11 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,6 +646,107 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2189C4-B941-4DBB-9BA9-1322962BB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1477A57-CB14-4549-9CAE-C785984348E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>scenario2</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2022_</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_4-Clinical-1014_</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_1-Clinical-1011_</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_4-Clinical-2024_</t>
   </si>
 </sst>
 </file>
@@ -468,9 +483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -692,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>3</v>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1477A57-CB14-4549-9CAE-C785984348E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37365A3-7146-4618-8B42-2BC72C132042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -136,25 +136,13 @@
     <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
   <si>
-    <t>CompleteExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
-  </si>
-  <si>
     <t>scenario2</t>
   </si>
   <si>
     <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
   <si>
-    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2022_</t>
-  </si>
-  <si>
-    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_4-Clinical-1014_</t>
-  </si>
-  <si>
-    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_1-Clinical-1011_</t>
-  </si>
-  <si>
-    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_4-Clinical-2024_</t>
+    <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -483,9 +471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +547,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -579,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -663,7 +651,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -687,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -695,7 +683,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -707,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -715,7 +703,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -732,7 +720,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -740,7 +728,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -748,7 +736,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -756,7 +744,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16">
         <v>4</v>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37365A3-7146-4618-8B42-2BC72C132042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA6D2D-83D2-4761-90D0-1500803047FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -133,9 +133,6 @@
     <t>LIVEHTA Automation - Test_NonOncology_Automation_3_radio_button</t>
   </si>
   <si>
-    <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
-  </si>
-  <si>
     <t>scenario2</t>
   </si>
   <si>
@@ -143,6 +140,12 @@
   </si>
   <si>
     <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>study_design_section2_1</t>
+  </si>
+  <si>
+    <t>study_design_section2_1_checkbox</t>
   </si>
 </sst>
 </file>
@@ -471,9 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,10 +550,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -567,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -587,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -604,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -638,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -646,12 +649,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -675,15 +678,15 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -695,15 +698,15 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -720,23 +723,32 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -744,10 +756,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA6D2D-83D2-4761-90D0-1500803047FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A17AD0C-4704-42CD-92B3-5AAB16820CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,15 +94,9 @@
     <t>sub_pop_section1</t>
   </si>
   <si>
-    <t>sub_pop_section3</t>
-  </si>
-  <si>
     <t>sub_pop_section1_checkbox</t>
   </si>
   <si>
-    <t>sub_pop_section3_checkbox</t>
-  </si>
-  <si>
     <t>lot_section2</t>
   </si>
   <si>
@@ -146,6 +140,12 @@
   </si>
   <si>
     <t>study_design_section2_1_checkbox</t>
+  </si>
+  <si>
+    <t>sub_pop_section2</t>
+  </si>
+  <si>
+    <t>sub_pop_section2_checkbox</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>14</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -581,10 +581,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -632,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -654,13 +654,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -672,13 +672,13 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>14</v>
@@ -686,19 +686,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -706,13 +706,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>5</v>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_2301/livehta_2301_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A17AD0C-4704-42CD-92B3-5AAB16820CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563BF5D5-79DE-4B22-A6B1-8A42782028C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>sectionname</t>
   </si>
   <si>
-    <t>lot_section</t>
-  </si>
-  <si>
     <t>intervention_section</t>
   </si>
   <si>
@@ -88,21 +85,6 @@
     <t>reported_variable_section</t>
   </si>
   <si>
-    <t>sub_pop_section</t>
-  </si>
-  <si>
-    <t>sub_pop_section1</t>
-  </si>
-  <si>
-    <t>sub_pop_section1_checkbox</t>
-  </si>
-  <si>
-    <t>lot_section2</t>
-  </si>
-  <si>
-    <t>lot_section2_checkbox</t>
-  </si>
-  <si>
     <t>intervention_section4</t>
   </si>
   <si>
@@ -142,10 +124,28 @@
     <t>study_design_section2_1_checkbox</t>
   </si>
   <si>
-    <t>sub_pop_section2</t>
-  </si>
-  <si>
-    <t>sub_pop_section2_checkbox</t>
+    <t>pop_filter2_section</t>
+  </si>
+  <si>
+    <t>pop_filter1_section</t>
+  </si>
+  <si>
+    <t>pop_filter2_section2</t>
+  </si>
+  <si>
+    <t>pop_filter2_section2_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section2</t>
+  </si>
+  <si>
+    <t>pop_filter1_section2_checkbox</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -541,16 +541,16 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>14</v>
@@ -567,10 +567,10 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -581,13 +581,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -615,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -654,13 +654,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -669,16 +669,16 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J10">
         <v>14</v>
@@ -686,19 +686,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -706,16 +706,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -723,16 +723,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J16">
         <v>5</v>
